--- a/biology/Histoire de la zoologie et de la botanique/Giancarlo_Ligabue/Giancarlo_Ligabue.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Giancarlo_Ligabue/Giancarlo_Ligabue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giancarlo Ligabue, né le 30 octobre 1931 à Venise et mort le 25 janvier 2015 dans la même ville, est un paléontologue, universitaire, politicien et homme d'affaires italien.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Venise, il a étudié l'économie à l'université « Ca' Foscari » de Venise, la géologie à la faculté des sciences de Paris, et plus tard, il a également reçu cinq doctorats honoris causa des universités de Bologne, Venise, Modène, Lima et Achgabat[1],[2]. Il a participé ou dirigé plus de 130 expéditions à travers le monde, et il a fait plusieurs découvertes archéologiques, telles que le Ligabueino, un dinosaure noasauridae nommé d'après lui, et comme les dépôts découverts des hominidés fossiles de dinosaures et dans le désert Ténéré[1]. Il a collaboré avec  Piero Angela pour plusieurs documentaires scientifiques[1]. Il a été président du Musée d'histoire naturelle de Venise et fondateur du Centre de recherche et d'étude Ligabue à Venise[2].
-Il a aussi été un homme d'affaires dans le domaine des fournitures et services pour les navires[1]. Il a été le président de l'équipe de  basketball Reyer Maschile Venezia entre le début des années 1960 et au début des années 1980[1]. Il a également été un membre du Parlement européen pour Forza Italia avec le groupe Forza Europa entre 1994 et 1999[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Venise, il a étudié l'économie à l'université « Ca' Foscari » de Venise, la géologie à la faculté des sciences de Paris, et plus tard, il a également reçu cinq doctorats honoris causa des universités de Bologne, Venise, Modène, Lima et Achgabat,. Il a participé ou dirigé plus de 130 expéditions à travers le monde, et il a fait plusieurs découvertes archéologiques, telles que le Ligabueino, un dinosaure noasauridae nommé d'après lui, et comme les dépôts découverts des hominidés fossiles de dinosaures et dans le désert Ténéré. Il a collaboré avec  Piero Angela pour plusieurs documentaires scientifiques. Il a été président du Musée d'histoire naturelle de Venise et fondateur du Centre de recherche et d'étude Ligabue à Venise.
+Il a aussi été un homme d'affaires dans le domaine des fournitures et services pour les navires. Il a été le président de l'équipe de  basketball Reyer Maschile Venezia entre le début des années 1960 et au début des années 1980. Il a également été un membre du Parlement européen pour Forza Italia avec le groupe Forza Europa entre 1994 et 1999,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Médaille du mérite de la culture et de l'art (Médaille d'argent du Mérite pour la culture et l'art)Rome 2 juin 1972
  Grand officier de l'ordre du Mérite de la République italienneRome 21 mai 2007</t>
